--- a/src/results/lda_tuning_results.xlsx
+++ b/src/results/lda_tuning_results.xlsx
@@ -7,8 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Discussion_0" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -426,25 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:P82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -455,44 +436,4706 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Topics</t>
+          <t>Discussion</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Coherence Score</t>
+          <t>Topic_ID</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Parameters</t>
+          <t>Topic_Probability</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Topic Distribution</t>
+          <t>Terms</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Coherence_Score</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Topic_Distribution_Probability</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Param_alpha</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Param_chunksize</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Param_decay</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Param_eta</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Param_iterations</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Param_num_topics</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Param_offset</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Param_passes</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Param_per_word_topics</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Param_random_state</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>[{'topic_id': 0, 'probability': 0.2777759972959757, 'terms': ['vehicle', 'fuel', 'etc', 'size', 'dataset', 'engine', 'transmission', 'year', 'class', 'providing']}, {'topic_id': 1, 'probability': 0.11994269769638777, 'terms': ['vehicle', 'hello', 'providing', 'fuel', 'type', 'year', 'indicating', 'produced', 'capacity', 'present']}, {'topic_id': 2, 'probability': 0.11728458665311337, 'terms': ['size', 'indicating', 'impact', 'co', 'represents', 'link', 'type', 'manufacture', 'specifies', 'represented']}, {'topic_id': 3, 'probability': 0.1185510279610753, 'terms': ['vehicle', 'dataset', 'emission', 'system', 'providing', 'bmw', 'specifies', 'representing', 'engine', 'which']}]</t>
+          <t>Discussion_0</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.6542210181131609</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>{'alpha': 'symmetric', 'chunksize': 714, 'decay': 0.5, 'eta': 'auto', 'num_topics': 4, 'offset': 15, 'passes': 12, 'per_word_topics': True, 'random_state': 42}</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.1282060854136944</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[(0, 0.99426526)]</t>
-        </is>
-      </c>
+          <t>recently, vehicle, indicates, automatic, unspecified, characteristic, specific, hello, etc, represents</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>0.6437013335927615</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.9437154531478882</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>asymmetric</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>500</v>
+      </c>
+      <c r="I2" t="n">
+        <v>1</v>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>auto</t>
+        </is>
+      </c>
+      <c r="K2" t="n">
+        <v>100</v>
+      </c>
+      <c r="L2" t="n">
+        <v>4</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1024</v>
+      </c>
+      <c r="N2" t="n">
+        <v>15</v>
+      </c>
+      <c r="O2" t="b">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Discussion_0</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.1305933529511094</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>hello, indicating, produced, capacity, represents, type, consist, specific, providing, intended</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>0.6437013335927615</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.05358242243528366</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>asymmetric</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>500</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>auto</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
+        <v>100</v>
+      </c>
+      <c r="L3" t="n">
+        <v>4</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1024</v>
+      </c>
+      <c r="N3" t="n">
+        <v>15</v>
+      </c>
+      <c r="O3" t="b">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Discussion_0</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.1299084639176726</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>indicating, impact, co, represents, link, manufacture, size, type, represented, specifies</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>0.6437013335927615</v>
+      </c>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>asymmetric</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>500</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>auto</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
+        <v>100</v>
+      </c>
+      <c r="L4" t="n">
+        <v>4</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1024</v>
+      </c>
+      <c r="N4" t="n">
+        <v>15</v>
+      </c>
+      <c r="O4" t="b">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Discussion_0</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.1291880123317242</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>system, bmw, emission, dataset, representing, manufacture, co, specifies, uploaded, liter</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>0.6437013335927615</v>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>asymmetric</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>500</v>
+      </c>
+      <c r="I5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>auto</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
+        <v>100</v>
+      </c>
+      <c r="L5" t="n">
+        <v>4</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1024</v>
+      </c>
+      <c r="N5" t="n">
+        <v>15</v>
+      </c>
+      <c r="O5" t="b">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Discussion_1</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>kaggle, xkaggle, became, dataset, expert, finally</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>1</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.03345602750778198</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>symmetric</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>auto</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
+        <v>100</v>
+      </c>
+      <c r="L6" t="n">
+        <v>4</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1024</v>
+      </c>
+      <c r="N6" t="n">
+        <v>10</v>
+      </c>
+      <c r="O6" t="b">
+        <v>1</v>
+      </c>
+      <c r="P6" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Discussion_1</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1.000000074505806</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>expert, dataset, xkaggle, became, kaggle, finally</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>1</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.8997120261192322</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>symmetric</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>auto</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
+        <v>100</v>
+      </c>
+      <c r="L7" t="n">
+        <v>4</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1024</v>
+      </c>
+      <c r="N7" t="n">
+        <v>10</v>
+      </c>
+      <c r="O7" t="b">
+        <v>1</v>
+      </c>
+      <c r="P7" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Discussion_1</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>2</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.000000029802322</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>became, finally, dataset, xkaggle, expert, kaggle</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>1</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.0334085039794445</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>symmetric</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>auto</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
+        <v>100</v>
+      </c>
+      <c r="L8" t="n">
+        <v>4</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1024</v>
+      </c>
+      <c r="N8" t="n">
+        <v>10</v>
+      </c>
+      <c r="O8" t="b">
+        <v>1</v>
+      </c>
+      <c r="P8" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Discussion_1</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>3</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1.000000074505806</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>expert, xkaggle, became, dataset, finally, kaggle</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.03342340141534805</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>symmetric</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>auto</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
+        <v>100</v>
+      </c>
+      <c r="L9" t="n">
+        <v>4</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1024</v>
+      </c>
+      <c r="N9" t="n">
+        <v>10</v>
+      </c>
+      <c r="O9" t="b">
+        <v>1</v>
+      </c>
+      <c r="P9" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Discussion_2</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.3923063762485981</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>awesome, fellow, lover, blast, url, data, adventure, expert, discussion, title</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>symmetric</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>auto</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
+        <v>100</v>
+      </c>
+      <c r="L10" t="n">
+        <v>4</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1024</v>
+      </c>
+      <c r="N10" t="n">
+        <v>10</v>
+      </c>
+      <c r="O10" t="b">
+        <v>1</v>
+      </c>
+      <c r="P10" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Discussion_2</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.3920107036828995</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>kaggle, folk, along, data, discussion, wait, first, community, thanks, guided</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.9723982214927673</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>symmetric</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>auto</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
+        <v>100</v>
+      </c>
+      <c r="L11" t="n">
+        <v>4</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1024</v>
+      </c>
+      <c r="N11" t="n">
+        <v>10</v>
+      </c>
+      <c r="O11" t="b">
+        <v>1</v>
+      </c>
+      <c r="P11" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Discussion_2</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>2</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.395714558660984</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>guided, lover, kaggle, ahead, learning, diving, journey, awesome, blast, earned</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>symmetric</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>auto</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
+        <v>100</v>
+      </c>
+      <c r="L12" t="n">
+        <v>4</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1024</v>
+      </c>
+      <c r="N12" t="n">
+        <v>10</v>
+      </c>
+      <c r="O12" t="b">
+        <v>1</v>
+      </c>
+      <c r="P12" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Discussion_2</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>3</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.3931494541466236</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>guided, adventure, way, learning, amazing, kaggle, discussion, diving, huge, lover</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>symmetric</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>auto</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
+        <v>100</v>
+      </c>
+      <c r="L13" t="n">
+        <v>4</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1024</v>
+      </c>
+      <c r="N13" t="n">
+        <v>10</v>
+      </c>
+      <c r="O13" t="b">
+        <v>1</v>
+      </c>
+      <c r="P13" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Discussion_3</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.6102876290678978</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>hey, share, kagglers, medal, clinched, scraping, news, today, exciting, statistic</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>1</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.01483799144625664</v>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>symmetric</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>auto</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
+        <v>100</v>
+      </c>
+      <c r="L14" t="n">
+        <v>4</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1024</v>
+      </c>
+      <c r="N14" t="n">
+        <v>10</v>
+      </c>
+      <c r="O14" t="b">
+        <v>1</v>
+      </c>
+      <c r="P14" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Discussion_3</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>1</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.6084377281367779</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>share, gold, medal, url, statistic, league, news, exciting, notebook, clinched</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>1</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.01482973247766495</v>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>symmetric</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>auto</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
+        <v>100</v>
+      </c>
+      <c r="L15" t="n">
+        <v>4</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1024</v>
+      </c>
+      <c r="N15" t="n">
+        <v>10</v>
+      </c>
+      <c r="O15" t="b">
+        <v>1</v>
+      </c>
+      <c r="P15" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Discussion_3</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>2</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.6044243574142456</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>scraping, medal, clinched, exciting, league, news, today, share, premier, kagglers</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>1</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.9554823637008667</v>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>symmetric</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>auto</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
+        <v>100</v>
+      </c>
+      <c r="L16" t="n">
+        <v>4</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1024</v>
+      </c>
+      <c r="N16" t="n">
+        <v>10</v>
+      </c>
+      <c r="O16" t="b">
+        <v>1</v>
+      </c>
+      <c r="P16" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Discussion_3</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>3</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.6081944108009338</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>hey, exciting, share, first, medal, news, statistic, gold, url, thrilled</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>1</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.01484997663646936</v>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>symmetric</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>auto</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
+        <v>100</v>
+      </c>
+      <c r="L17" t="n">
+        <v>4</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1024</v>
+      </c>
+      <c r="N17" t="n">
+        <v>10</v>
+      </c>
+      <c r="O17" t="b">
+        <v>1</v>
+      </c>
+      <c r="P17" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Discussion_4</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.850775308907032</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>made, overall, share, currently, url, sitting, finally, kagglers, hey, ranking</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>1</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.02057144977152348</v>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>symmetric</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>auto</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
+        <v>100</v>
+      </c>
+      <c r="L18" t="n">
+        <v>4</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1024</v>
+      </c>
+      <c r="N18" t="n">
+        <v>10</v>
+      </c>
+      <c r="O18" t="b">
+        <v>1</v>
+      </c>
+      <c r="P18" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Discussion_4</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>1</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.8461941480636597</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>currently, sitting, url, kagglers, ranking, finally, overall, hey, made, share</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>1</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.02057067863643169</v>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>symmetric</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>auto</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
+        <v>100</v>
+      </c>
+      <c r="L19" t="n">
+        <v>4</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1024</v>
+      </c>
+      <c r="N19" t="n">
+        <v>10</v>
+      </c>
+      <c r="O19" t="b">
+        <v>1</v>
+      </c>
+      <c r="P19" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Discussion_4</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>2</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.8415329605340958</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>top, overall, url, currently, stoked, ranking, finally, hey, kagglers, share</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>1</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.9382593035697937</v>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>symmetric</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>auto</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
+        <v>100</v>
+      </c>
+      <c r="L20" t="n">
+        <v>4</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1024</v>
+      </c>
+      <c r="N20" t="n">
+        <v>10</v>
+      </c>
+      <c r="O20" t="b">
+        <v>1</v>
+      </c>
+      <c r="P20" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Discussion_4</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>3</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.8438926562666893</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>stoked, overall, made, ranking, top, sitting, kagglers, finally, url, hey</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>1</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.02059856057167053</v>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>symmetric</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>auto</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
+        <v>100</v>
+      </c>
+      <c r="L21" t="n">
+        <v>4</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1024</v>
+      </c>
+      <c r="N21" t="n">
+        <v>10</v>
+      </c>
+      <c r="O21" t="b">
+        <v>1</v>
+      </c>
+      <c r="P21" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Discussion_5</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>0</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.4595596343278885</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>feature, learned, training, feedback, forward, attempt, kaggle, good, model, selection</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.0106623163446784</v>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>symmetric</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>auto</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
+        <v>100</v>
+      </c>
+      <c r="L22" t="n">
+        <v>4</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1024</v>
+      </c>
+      <c r="N22" t="n">
+        <v>10</v>
+      </c>
+      <c r="O22" t="b">
+        <v>1</v>
+      </c>
+      <c r="P22" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Discussion_5</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>1</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.4570754654705524</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>competition, work, selection, first, kaggle, learned, prepared, houseprice, th, forward</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.9679949283599854</v>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>symmetric</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>auto</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
+        <v>100</v>
+      </c>
+      <c r="L23" t="n">
+        <v>4</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1024</v>
+      </c>
+      <c r="N23" t="n">
+        <v>10</v>
+      </c>
+      <c r="O23" t="b">
+        <v>1</v>
+      </c>
+      <c r="P23" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Discussion_5</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>2</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.4515936188399792</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>hello, first, prepared, everyone, forward, learned, look, selection, good, attempt</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.01065833307802677</v>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>symmetric</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>auto</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
+        <v>100</v>
+      </c>
+      <c r="L24" t="n">
+        <v>4</v>
+      </c>
+      <c r="M24" t="n">
+        <v>1024</v>
+      </c>
+      <c r="N24" t="n">
+        <v>10</v>
+      </c>
+      <c r="O24" t="b">
+        <v>1</v>
+      </c>
+      <c r="P24" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Discussion_5</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>3</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.4660531915724277</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>attempt, learned, feedback, everyone, model, training, feature, wish, entered, work</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.01068441476672888</v>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>symmetric</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>auto</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
+        <v>100</v>
+      </c>
+      <c r="L25" t="n">
+        <v>4</v>
+      </c>
+      <c r="M25" t="n">
+        <v>1024</v>
+      </c>
+      <c r="N25" t="n">
+        <v>10</v>
+      </c>
+      <c r="O25" t="b">
+        <v>1</v>
+      </c>
+      <c r="P25" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Discussion_6</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>0</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.5030853226780891</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>dataset, support, pick, view, dear, hesitate, big, passed, hot, store</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.9666394591331482</v>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>symmetric</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>auto</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
+        <v>100</v>
+      </c>
+      <c r="L26" t="n">
+        <v>4</v>
+      </c>
+      <c r="M26" t="n">
+        <v>1024</v>
+      </c>
+      <c r="N26" t="n">
+        <v>10</v>
+      </c>
+      <c r="O26" t="b">
+        <v>1</v>
+      </c>
+      <c r="P26" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Discussion_6</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>1</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.5003692544996738</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>view, hot, reach, steam, url, continued, pick, kaggle, dataset, community</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.0111283203586936</v>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>symmetric</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>auto</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
+        <v>100</v>
+      </c>
+      <c r="L27" t="n">
+        <v>4</v>
+      </c>
+      <c r="M27" t="n">
+        <v>1024</v>
+      </c>
+      <c r="N27" t="n">
+        <v>10</v>
+      </c>
+      <c r="O27" t="b">
+        <v>1</v>
+      </c>
+      <c r="P27" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Discussion_6</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>2</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.4956269823014736</v>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>continued, reach, kanchana, support, big, hesitate, passed, thank, dataset, pick</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.01111861504614353</v>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>symmetric</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>auto</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
+        <v>100</v>
+      </c>
+      <c r="L28" t="n">
+        <v>4</v>
+      </c>
+      <c r="M28" t="n">
+        <v>1024</v>
+      </c>
+      <c r="N28" t="n">
+        <v>10</v>
+      </c>
+      <c r="O28" t="b">
+        <v>1</v>
+      </c>
+      <c r="P28" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Discussion_6</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>3</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.5067381002008915</v>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>downloads, thanks, passed, kaggle, kanchana, big, hot, cheer, support, dear</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.01111360173672438</v>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>symmetric</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>auto</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
+        <v>100</v>
+      </c>
+      <c r="L29" t="n">
+        <v>4</v>
+      </c>
+      <c r="M29" t="n">
+        <v>1024</v>
+      </c>
+      <c r="N29" t="n">
+        <v>10</v>
+      </c>
+      <c r="O29" t="b">
+        <v>1</v>
+      </c>
+      <c r="P29" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Discussion_7</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>0</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.1533289328217506</v>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>week, competition_master, model, augmenting, learning, kaggle, learn, grow, journey, wish</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="F30" t="inlineStr"/>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>symmetric</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>auto</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
+        <v>100</v>
+      </c>
+      <c r="L30" t="n">
+        <v>4</v>
+      </c>
+      <c r="M30" t="n">
+        <v>1024</v>
+      </c>
+      <c r="N30" t="n">
+        <v>10</v>
+      </c>
+      <c r="O30" t="b">
+        <v>1</v>
+      </c>
+      <c r="P30" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Discussion_7</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>1</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0.1568520991131663</v>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>run, tabular, extremely, kaggle, champion, aim, grandmaster, achievement, thanks, competition_master</t>
+        </is>
+      </c>
+      <c r="E31" t="n">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="F31" t="inlineStr"/>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>symmetric</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>auto</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
+        <v>100</v>
+      </c>
+      <c r="L31" t="n">
+        <v>4</v>
+      </c>
+      <c r="M31" t="n">
+        <v>1024</v>
+      </c>
+      <c r="N31" t="n">
+        <v>10</v>
+      </c>
+      <c r="O31" t="b">
+        <v>1</v>
+      </c>
+      <c r="P31" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Discussion_7</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>2</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0.1540755173191428</v>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>career, notebook, date, extremely, deep, life, community, novice, champion, best</t>
+        </is>
+      </c>
+      <c r="E32" t="n">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="F32" t="inlineStr"/>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>symmetric</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>auto</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
+        <v>100</v>
+      </c>
+      <c r="L32" t="n">
+        <v>4</v>
+      </c>
+      <c r="M32" t="n">
+        <v>1024</v>
+      </c>
+      <c r="N32" t="n">
+        <v>10</v>
+      </c>
+      <c r="O32" t="b">
+        <v>1</v>
+      </c>
+      <c r="P32" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Discussion_7</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>3</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0.1734647415578365</v>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>datasets, hope, competition_master, wish, learn, discussion, grandmaster, th, kaggle, contribute</t>
+        </is>
+      </c>
+      <c r="E33" t="n">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0.9912180304527283</v>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>symmetric</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>auto</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
+        <v>100</v>
+      </c>
+      <c r="L33" t="n">
+        <v>4</v>
+      </c>
+      <c r="M33" t="n">
+        <v>1024</v>
+      </c>
+      <c r="N33" t="n">
+        <v>10</v>
+      </c>
+      <c r="O33" t="b">
+        <v>1</v>
+      </c>
+      <c r="P33" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Discussion_8</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>0</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0.2117312978953123</v>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>article, computer_vision, week, image, url, research, art, tier, every, significant</t>
+        </is>
+      </c>
+      <c r="E34" t="n">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0.9875078797340393</v>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>symmetric</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>auto</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
+        <v>100</v>
+      </c>
+      <c r="L34" t="n">
+        <v>4</v>
+      </c>
+      <c r="M34" t="n">
+        <v>1024</v>
+      </c>
+      <c r="N34" t="n">
+        <v>10</v>
+      </c>
+      <c r="O34" t="b">
+        <v>1</v>
+      </c>
+      <c r="P34" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Discussion_8</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>1</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0.2001049779355526</v>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>fourth, significant, optimization, vision, innovative, highlighting, academic, tier, image, practitioner</t>
+        </is>
+      </c>
+      <c r="E35" t="n">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="F35" t="inlineStr"/>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>symmetric</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>auto</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
+        <v>100</v>
+      </c>
+      <c r="L35" t="n">
+        <v>4</v>
+      </c>
+      <c r="M35" t="n">
+        <v>1024</v>
+      </c>
+      <c r="N35" t="n">
+        <v>10</v>
+      </c>
+      <c r="O35" t="b">
+        <v>1</v>
+      </c>
+      <c r="P35" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Discussion_8</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>2</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0.20542405359447</v>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>innovative, model, state, various, vision, technique, overview, fourth, gans, subfields</t>
+        </is>
+      </c>
+      <c r="E36" t="n">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="F36" t="inlineStr"/>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>symmetric</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>auto</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
+        <v>100</v>
+      </c>
+      <c r="L36" t="n">
+        <v>4</v>
+      </c>
+      <c r="M36" t="n">
+        <v>1024</v>
+      </c>
+      <c r="N36" t="n">
+        <v>10</v>
+      </c>
+      <c r="O36" t="b">
+        <v>1</v>
+      </c>
+      <c r="P36" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Discussion_8</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>3</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0.1962343156337738</v>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>optimization, analysis, journal, overview, provide, enthusiast, subfields, continue, innovative, paper</t>
+        </is>
+      </c>
+      <c r="E37" t="n">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="F37" t="inlineStr"/>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>symmetric</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>auto</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
+        <v>100</v>
+      </c>
+      <c r="L37" t="n">
+        <v>4</v>
+      </c>
+      <c r="M37" t="n">
+        <v>1024</v>
+      </c>
+      <c r="N37" t="n">
+        <v>10</v>
+      </c>
+      <c r="O37" t="b">
+        <v>1</v>
+      </c>
+      <c r="P37" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Discussion_9</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>0</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0.9212005287408829</v>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>kaggler, notebook, support, best, thanks, better, information, dear, provide, view</t>
+        </is>
+      </c>
+      <c r="E38" t="n">
+        <v>1</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0.02229193039238453</v>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>symmetric</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>auto</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
+        <v>100</v>
+      </c>
+      <c r="L38" t="n">
+        <v>4</v>
+      </c>
+      <c r="M38" t="n">
+        <v>1024</v>
+      </c>
+      <c r="N38" t="n">
+        <v>10</v>
+      </c>
+      <c r="O38" t="b">
+        <v>1</v>
+      </c>
+      <c r="P38" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Discussion_9</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>1</v>
+      </c>
+      <c r="C39" t="n">
+        <v>0.9164443910121918</v>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>better, url, best, kaggler, support, dear, provide, information, notebook, thanks</t>
+        </is>
+      </c>
+      <c r="E39" t="n">
+        <v>1</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0.02227102220058441</v>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>symmetric</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>auto</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
+        <v>100</v>
+      </c>
+      <c r="L39" t="n">
+        <v>4</v>
+      </c>
+      <c r="M39" t="n">
+        <v>1024</v>
+      </c>
+      <c r="N39" t="n">
+        <v>10</v>
+      </c>
+      <c r="O39" t="b">
+        <v>1</v>
+      </c>
+      <c r="P39" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Discussion_9</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>2</v>
+      </c>
+      <c r="C40" t="n">
+        <v>0.9173468425869942</v>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>support, dear, thanks, better, information, kaggler, notebook, url, provide, view</t>
+        </is>
+      </c>
+      <c r="E40" t="n">
+        <v>1</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0.02226843684911728</v>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>symmetric</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>auto</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
+        <v>100</v>
+      </c>
+      <c r="L40" t="n">
+        <v>4</v>
+      </c>
+      <c r="M40" t="n">
+        <v>1024</v>
+      </c>
+      <c r="N40" t="n">
+        <v>10</v>
+      </c>
+      <c r="O40" t="b">
+        <v>1</v>
+      </c>
+      <c r="P40" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Discussion_9</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>3</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0.9147258922457695</v>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>thanks, better, dear, support, best, url, provide, kaggler, notebook, view</t>
+        </is>
+      </c>
+      <c r="E41" t="n">
+        <v>1</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0.9331685900688171</v>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>symmetric</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>auto</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
+        <v>100</v>
+      </c>
+      <c r="L41" t="n">
+        <v>4</v>
+      </c>
+      <c r="M41" t="n">
+        <v>1024</v>
+      </c>
+      <c r="N41" t="n">
+        <v>10</v>
+      </c>
+      <c r="O41" t="b">
+        <v>1</v>
+      </c>
+      <c r="P41" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Discussion_10</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>0</v>
+      </c>
+      <c r="C42" t="n">
+        <v>0.354864839464426</v>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>celebrate, estate, url, learning, check, part, community, advanced, estat, continue</t>
+        </is>
+      </c>
+      <c r="E42" t="n">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="F42" t="inlineStr"/>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>symmetric</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>auto</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
+        <v>100</v>
+      </c>
+      <c r="L42" t="n">
+        <v>4</v>
+      </c>
+      <c r="M42" t="n">
+        <v>1024</v>
+      </c>
+      <c r="N42" t="n">
+        <v>10</v>
+      </c>
+      <c r="O42" t="b">
+        <v>1</v>
+      </c>
+      <c r="P42" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Discussion_10</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>1</v>
+      </c>
+      <c r="C43" t="n">
+        <v>0.3592151626944542</v>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>discussion_tag, housing, real, estat, beginner, celebrate, together, advanced, check, milestone</t>
+        </is>
+      </c>
+      <c r="E43" t="n">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="F43" t="inlineStr"/>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>symmetric</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>auto</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
+        <v>100</v>
+      </c>
+      <c r="L43" t="n">
+        <v>4</v>
+      </c>
+      <c r="M43" t="n">
+        <v>1024</v>
+      </c>
+      <c r="N43" t="n">
+        <v>10</v>
+      </c>
+      <c r="O43" t="b">
+        <v>1</v>
+      </c>
+      <c r="P43" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Discussion_10</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>2</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0.3609043695032597</v>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>discovery, let, exploring, estate, part, url, exploration, beginner, estat, together</t>
+        </is>
+      </c>
+      <c r="E44" t="n">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="F44" t="inlineStr"/>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>symmetric</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>auto</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
+        <v>100</v>
+      </c>
+      <c r="L44" t="n">
+        <v>4</v>
+      </c>
+      <c r="M44" t="n">
+        <v>1024</v>
+      </c>
+      <c r="N44" t="n">
+        <v>10</v>
+      </c>
+      <c r="O44" t="b">
+        <v>1</v>
+      </c>
+      <c r="P44" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Discussion_10</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>3</v>
+      </c>
+      <c r="C45" t="n">
+        <v>0.3879572078585625</v>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>discussion_tag, milestone, kaggle, let, community, advanced, housing, together, beginner, intermediate</t>
+        </is>
+      </c>
+      <c r="E45" t="n">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0.9822710752487183</v>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>symmetric</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>auto</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
+        <v>100</v>
+      </c>
+      <c r="L45" t="n">
+        <v>4</v>
+      </c>
+      <c r="M45" t="n">
+        <v>1024</v>
+      </c>
+      <c r="N45" t="n">
+        <v>10</v>
+      </c>
+      <c r="O45" t="b">
+        <v>1</v>
+      </c>
+      <c r="P45" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Discussion_11</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>0</v>
+      </c>
+      <c r="C46" t="n">
+        <v>1.000000014901161</v>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>llm, study, thank, community, useful, dataset, kaggle, especially, support</t>
+        </is>
+      </c>
+      <c r="E46" t="n">
+        <v>1</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0.9197366237640381</v>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>symmetric</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>auto</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
+        <v>100</v>
+      </c>
+      <c r="L46" t="n">
+        <v>4</v>
+      </c>
+      <c r="M46" t="n">
+        <v>1024</v>
+      </c>
+      <c r="N46" t="n">
+        <v>10</v>
+      </c>
+      <c r="O46" t="b">
+        <v>1</v>
+      </c>
+      <c r="P46" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Discussion_11</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>1</v>
+      </c>
+      <c r="C47" t="n">
+        <v>1.000000014901161</v>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>kaggle, especially, support, llm, useful, study, thank, dataset, community</t>
+        </is>
+      </c>
+      <c r="E47" t="n">
+        <v>1</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0.02671866305172443</v>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>symmetric</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I47" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>auto</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
+        <v>100</v>
+      </c>
+      <c r="L47" t="n">
+        <v>4</v>
+      </c>
+      <c r="M47" t="n">
+        <v>1024</v>
+      </c>
+      <c r="N47" t="n">
+        <v>10</v>
+      </c>
+      <c r="O47" t="b">
+        <v>1</v>
+      </c>
+      <c r="P47" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Discussion_11</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>2</v>
+      </c>
+      <c r="C48" t="n">
+        <v>1.000000052154064</v>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>especially, support, study, thank, community, useful, dataset, kaggle, llm</t>
+        </is>
+      </c>
+      <c r="E48" t="n">
+        <v>1</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0.02676349878311157</v>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>symmetric</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I48" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>auto</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
+        <v>100</v>
+      </c>
+      <c r="L48" t="n">
+        <v>4</v>
+      </c>
+      <c r="M48" t="n">
+        <v>1024</v>
+      </c>
+      <c r="N48" t="n">
+        <v>10</v>
+      </c>
+      <c r="O48" t="b">
+        <v>1</v>
+      </c>
+      <c r="P48" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Discussion_11</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>3</v>
+      </c>
+      <c r="C49" t="n">
+        <v>1.000000014901161</v>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>especially, thank, useful, support, kaggle, community, llm, dataset, study</t>
+        </is>
+      </c>
+      <c r="E49" t="n">
+        <v>1</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0.02678117156028748</v>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>symmetric</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>auto</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
+        <v>100</v>
+      </c>
+      <c r="L49" t="n">
+        <v>4</v>
+      </c>
+      <c r="M49" t="n">
+        <v>1024</v>
+      </c>
+      <c r="N49" t="n">
+        <v>10</v>
+      </c>
+      <c r="O49" t="b">
+        <v>1</v>
+      </c>
+      <c r="P49" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Discussion_12</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>0</v>
+      </c>
+      <c r="C50" t="n">
+        <v>0.2134462464600801</v>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>discussion_tag, kaggle, advanced, beginner, ahead, thank, sheer, many, officially, one</t>
+        </is>
+      </c>
+      <c r="E50" t="n">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0.9869038462638855</v>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>symmetric</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I50" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>auto</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
+        <v>100</v>
+      </c>
+      <c r="L50" t="n">
+        <v>4</v>
+      </c>
+      <c r="M50" t="n">
+        <v>1024</v>
+      </c>
+      <c r="N50" t="n">
+        <v>10</v>
+      </c>
+      <c r="O50" t="b">
+        <v>1</v>
+      </c>
+      <c r="P50" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Discussion_12</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>1</v>
+      </c>
+      <c r="C51" t="n">
+        <v>0.2037729751318693</v>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>gather, status, leveled, without, incredible, hey, achievement, thrilled, master, thank</t>
+        </is>
+      </c>
+      <c r="E51" t="n">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="F51" t="inlineStr"/>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>symmetric</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>auto</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
+        <v>100</v>
+      </c>
+      <c r="L51" t="n">
+        <v>4</v>
+      </c>
+      <c r="M51" t="n">
+        <v>1024</v>
+      </c>
+      <c r="N51" t="n">
+        <v>10</v>
+      </c>
+      <c r="O51" t="b">
+        <v>1</v>
+      </c>
+      <c r="P51" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Discussion_12</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>2</v>
+      </c>
+      <c r="C52" t="n">
+        <v>0.2083121258765459</v>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>intermediat, let, tell, wing, thrilled, many, hardly, heck, thank, intermediate</t>
+        </is>
+      </c>
+      <c r="E52" t="n">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="F52" t="inlineStr"/>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>symmetric</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I52" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>auto</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
+        <v>100</v>
+      </c>
+      <c r="L52" t="n">
+        <v>4</v>
+      </c>
+      <c r="M52" t="n">
+        <v>1024</v>
+      </c>
+      <c r="N52" t="n">
+        <v>10</v>
+      </c>
+      <c r="O52" t="b">
+        <v>1</v>
+      </c>
+      <c r="P52" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Discussion_12</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>3</v>
+      </c>
+      <c r="C53" t="n">
+        <v>0.2019938286393881</v>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>many, beginner, kaggle, absolutely, master, officially, fam, thrilled, exciting, intermediate</t>
+        </is>
+      </c>
+      <c r="E53" t="n">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="F53" t="inlineStr"/>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>symmetric</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I53" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>auto</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
+        <v>100</v>
+      </c>
+      <c r="L53" t="n">
+        <v>4</v>
+      </c>
+      <c r="M53" t="n">
+        <v>1024</v>
+      </c>
+      <c r="N53" t="n">
+        <v>10</v>
+      </c>
+      <c r="O53" t="b">
+        <v>1</v>
+      </c>
+      <c r="P53" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Discussion_13</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>0</v>
+      </c>
+      <c r="C54" t="n">
+        <v>0.4073224328458309</v>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>course, learning, python, datascience, thrilled, growth, achievement, kaggle, incredible, tag</t>
+        </is>
+      </c>
+      <c r="E54" t="n">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="F54" t="inlineStr"/>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>symmetric</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I54" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>auto</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
+        <v>100</v>
+      </c>
+      <c r="L54" t="n">
+        <v>4</v>
+      </c>
+      <c r="M54" t="n">
+        <v>1024</v>
+      </c>
+      <c r="N54" t="n">
+        <v>10</v>
+      </c>
+      <c r="O54" t="b">
+        <v>1</v>
+      </c>
+      <c r="P54" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Discussion_13</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>1</v>
+      </c>
+      <c r="C55" t="n">
+        <v>0.4064777158200741</v>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>proud, milestone, completed, incredible, intro, machinelearning, growth, neverstoplearning, tag, course</t>
+        </is>
+      </c>
+      <c r="E55" t="n">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="F55" t="inlineStr"/>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>symmetric</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I55" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>auto</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
+        <v>100</v>
+      </c>
+      <c r="L55" t="n">
+        <v>4</v>
+      </c>
+      <c r="M55" t="n">
+        <v>1024</v>
+      </c>
+      <c r="N55" t="n">
+        <v>10</v>
+      </c>
+      <c r="O55" t="b">
+        <v>1</v>
+      </c>
+      <c r="P55" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Discussion_13</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>2</v>
+      </c>
+      <c r="C56" t="n">
+        <v>0.4089525006711483</v>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>programmin, successfully, python, completed, achievement, share, kaggle, achievementunlocked, proud, discussion</t>
+        </is>
+      </c>
+      <c r="E56" t="n">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="F56" t="inlineStr"/>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>symmetric</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>auto</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
+        <v>100</v>
+      </c>
+      <c r="L56" t="n">
+        <v>4</v>
+      </c>
+      <c r="M56" t="n">
+        <v>1024</v>
+      </c>
+      <c r="N56" t="n">
+        <v>10</v>
+      </c>
+      <c r="O56" t="b">
+        <v>1</v>
+      </c>
+      <c r="P56" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Discussion_13</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>3</v>
+      </c>
+      <c r="C57" t="n">
+        <v>0.4185517318546772</v>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>programming, kaggle, completed, successfully, discussion, share, learning, proud, tag, learningjourney</t>
+        </is>
+      </c>
+      <c r="E57" t="n">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="F57" t="n">
+        <v>0.9733655452728271</v>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>symmetric</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I57" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>auto</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
+        <v>100</v>
+      </c>
+      <c r="L57" t="n">
+        <v>4</v>
+      </c>
+      <c r="M57" t="n">
+        <v>1024</v>
+      </c>
+      <c r="N57" t="n">
+        <v>10</v>
+      </c>
+      <c r="O57" t="b">
+        <v>1</v>
+      </c>
+      <c r="P57" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Discussion_14</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>0</v>
+      </c>
+      <c r="C58" t="n">
+        <v>0.2662864942103624</v>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>discussion_tag, python, softmax, logistic, regression, url, classification, learning, tutorial, algorithm</t>
+        </is>
+      </c>
+      <c r="E58" t="n">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="F58" t="n">
+        <v>0.9884851574897766</v>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>symmetric</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I58" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>auto</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
+        <v>100</v>
+      </c>
+      <c r="L58" t="n">
+        <v>4</v>
+      </c>
+      <c r="M58" t="n">
+        <v>1024</v>
+      </c>
+      <c r="N58" t="n">
+        <v>10</v>
+      </c>
+      <c r="O58" t="b">
+        <v>1</v>
+      </c>
+      <c r="P58" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Discussion_14</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>1</v>
+      </c>
+      <c r="C59" t="n">
+        <v>0.22718102671206</v>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>hope, profile, logistic, keep, classification, analytics, reading, theoretical, learning, thing</t>
+        </is>
+      </c>
+      <c r="E59" t="n">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="F59" t="inlineStr"/>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>symmetric</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I59" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>auto</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
+        <v>100</v>
+      </c>
+      <c r="L59" t="n">
+        <v>4</v>
+      </c>
+      <c r="M59" t="n">
+        <v>1024</v>
+      </c>
+      <c r="N59" t="n">
+        <v>10</v>
+      </c>
+      <c r="O59" t="b">
+        <v>1</v>
+      </c>
+      <c r="P59" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Discussion_14</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>2</v>
+      </c>
+      <c r="C60" t="n">
+        <v>0.2311301045119762</v>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>profile, release, added, description, machine, theoretical, miss, analytics, promised, analytic</t>
+        </is>
+      </c>
+      <c r="E60" t="n">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="F60" t="inlineStr"/>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>symmetric</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I60" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>auto</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
+        <v>100</v>
+      </c>
+      <c r="L60" t="n">
+        <v>4</v>
+      </c>
+      <c r="M60" t="n">
+        <v>1024</v>
+      </c>
+      <c r="N60" t="n">
+        <v>10</v>
+      </c>
+      <c r="O60" t="b">
+        <v>1</v>
+      </c>
+      <c r="P60" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Discussion_14</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>3</v>
+      </c>
+      <c r="C61" t="n">
+        <v>0.2295080404728651</v>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>course, which, friend, keep, fun, thing, dear, data, classification, part</t>
+        </is>
+      </c>
+      <c r="E61" t="n">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="F61" t="inlineStr"/>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>symmetric</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I61" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>auto</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
+        <v>100</v>
+      </c>
+      <c r="L61" t="n">
+        <v>4</v>
+      </c>
+      <c r="M61" t="n">
+        <v>1024</v>
+      </c>
+      <c r="N61" t="n">
+        <v>10</v>
+      </c>
+      <c r="O61" t="b">
+        <v>1</v>
+      </c>
+      <c r="P61" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Discussion_15</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>0</v>
+      </c>
+      <c r="C62" t="n">
+        <v>0.407776553183794</v>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>kaggle, celebrating, team, cherishing, work, datasets, accomplishment, involved, dedication, top</t>
+        </is>
+      </c>
+      <c r="E62" t="n">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="F62" t="n">
+        <v>0.9713665246963501</v>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>symmetric</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I62" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>auto</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
+        <v>100</v>
+      </c>
+      <c r="L62" t="n">
+        <v>4</v>
+      </c>
+      <c r="M62" t="n">
+        <v>1024</v>
+      </c>
+      <c r="N62" t="n">
+        <v>10</v>
+      </c>
+      <c r="O62" t="b">
+        <v>1</v>
+      </c>
+      <c r="P62" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Discussion_15</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>1</v>
+      </c>
+      <c r="C63" t="n">
+        <v>0.4064813479781151</v>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>spirit, let, broken, dedication, everyone, keep, datasets, milestone, top, celebrating</t>
+        </is>
+      </c>
+      <c r="E63" t="n">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="F63" t="inlineStr"/>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>symmetric</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I63" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>auto</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
+        <v>100</v>
+      </c>
+      <c r="L63" t="n">
+        <v>4</v>
+      </c>
+      <c r="M63" t="n">
+        <v>1024</v>
+      </c>
+      <c r="N63" t="n">
+        <v>10</v>
+      </c>
+      <c r="O63" t="b">
+        <v>1</v>
+      </c>
+      <c r="P63" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Discussion_15</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>2</v>
+      </c>
+      <c r="C64" t="n">
+        <v>0.4089714884757996</v>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>moment, thrilled, team, broken, accomplishment, testament, involved, achieved, spirit, collaborative</t>
+        </is>
+      </c>
+      <c r="E64" t="n">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="F64" t="inlineStr"/>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>symmetric</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I64" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>auto</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
+        <v>100</v>
+      </c>
+      <c r="L64" t="n">
+        <v>4</v>
+      </c>
+      <c r="M64" t="n">
+        <v>1024</v>
+      </c>
+      <c r="N64" t="n">
+        <v>10</v>
+      </c>
+      <c r="O64" t="b">
+        <v>1</v>
+      </c>
+      <c r="P64" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Discussion_15</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>3</v>
+      </c>
+      <c r="C65" t="n">
+        <v>0.4096431210637093</v>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>significant, broken, thrilled, collaborative, testament, involved, kaggle, spirit, top, milestone</t>
+        </is>
+      </c>
+      <c r="E65" t="n">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="F65" t="inlineStr"/>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>symmetric</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I65" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>auto</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
+        <v>100</v>
+      </c>
+      <c r="L65" t="n">
+        <v>4</v>
+      </c>
+      <c r="M65" t="n">
+        <v>1024</v>
+      </c>
+      <c r="N65" t="n">
+        <v>10</v>
+      </c>
+      <c r="O65" t="b">
+        <v>1</v>
+      </c>
+      <c r="P65" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Discussion_16</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>0</v>
+      </c>
+      <c r="C66" t="n">
+        <v>0.3785516507923603</v>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>deepest, hello, supported, discussion, today, everyone, bronze, gratitude, excited, time</t>
+        </is>
+      </c>
+      <c r="E66" t="n">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="F66" t="inlineStr"/>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>symmetric</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I66" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>auto</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
+        <v>100</v>
+      </c>
+      <c r="L66" t="n">
+        <v>4</v>
+      </c>
+      <c r="M66" t="n">
+        <v>1024</v>
+      </c>
+      <c r="N66" t="n">
+        <v>10</v>
+      </c>
+      <c r="O66" t="b">
+        <v>1</v>
+      </c>
+      <c r="P66" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Discussion_16</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>1</v>
+      </c>
+      <c r="C67" t="n">
+        <v>0.3831661753356457</v>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>everyone, discussion, news, inspired, consistent, engagement, wonderful, today, hello, journey</t>
+        </is>
+      </c>
+      <c r="E67" t="n">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="F67" t="n">
+        <v>0.9742037653923035</v>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>symmetric</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I67" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>auto</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
+        <v>100</v>
+      </c>
+      <c r="L67" t="n">
+        <v>4</v>
+      </c>
+      <c r="M67" t="n">
+        <v>1024</v>
+      </c>
+      <c r="N67" t="n">
+        <v>10</v>
+      </c>
+      <c r="O67" t="b">
+        <v>1</v>
+      </c>
+      <c r="P67" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Discussion_16</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>2</v>
+      </c>
+      <c r="C68" t="n">
+        <v>0.3837732598185539</v>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>inspired, url, share, medal, news, everyone, knowledge, contribution, crossed, excited</t>
+        </is>
+      </c>
+      <c r="E68" t="n">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="F68" t="inlineStr"/>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>symmetric</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I68" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>auto</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
+        <v>100</v>
+      </c>
+      <c r="L68" t="n">
+        <v>4</v>
+      </c>
+      <c r="M68" t="n">
+        <v>1024</v>
+      </c>
+      <c r="N68" t="n">
+        <v>10</v>
+      </c>
+      <c r="O68" t="b">
+        <v>1</v>
+      </c>
+      <c r="P68" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Discussion_16</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>3</v>
+      </c>
+      <c r="C69" t="n">
+        <v>0.3781725876033306</v>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>hello, time, medal, discussion, bronze, knowledge, today, engagement, wonderful, inspired</t>
+        </is>
+      </c>
+      <c r="E69" t="n">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="F69" t="inlineStr"/>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>symmetric</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I69" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>auto</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
+        <v>100</v>
+      </c>
+      <c r="L69" t="n">
+        <v>4</v>
+      </c>
+      <c r="M69" t="n">
+        <v>1024</v>
+      </c>
+      <c r="N69" t="n">
+        <v>10</v>
+      </c>
+      <c r="O69" t="b">
+        <v>1</v>
+      </c>
+      <c r="P69" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Discussion_17</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>0</v>
+      </c>
+      <c r="C70" t="n">
+        <v>0.5771469585597515</v>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>friend, support, glad, kaggler, community, notebook, kagglers, top, day, thank</t>
+        </is>
+      </c>
+      <c r="E70" t="n">
+        <v>1</v>
+      </c>
+      <c r="F70" t="n">
+        <v>0.01270244549959898</v>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>symmetric</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I70" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>auto</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
+        <v>100</v>
+      </c>
+      <c r="L70" t="n">
+        <v>4</v>
+      </c>
+      <c r="M70" t="n">
+        <v>1024</v>
+      </c>
+      <c r="N70" t="n">
+        <v>10</v>
+      </c>
+      <c r="O70" t="b">
+        <v>1</v>
+      </c>
+      <c r="P70" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Discussion_17</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>1</v>
+      </c>
+      <c r="C71" t="n">
+        <v>0.5795468389987946</v>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>notebook, week, entered, working, happy, top, support, glad, kaggler, community</t>
+        </is>
+      </c>
+      <c r="E71" t="n">
+        <v>1</v>
+      </c>
+      <c r="F71" t="n">
+        <v>0.01271816715598106</v>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>symmetric</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I71" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>auto</t>
+        </is>
+      </c>
+      <c r="K71" t="n">
+        <v>100</v>
+      </c>
+      <c r="L71" t="n">
+        <v>4</v>
+      </c>
+      <c r="M71" t="n">
+        <v>1024</v>
+      </c>
+      <c r="N71" t="n">
+        <v>10</v>
+      </c>
+      <c r="O71" t="b">
+        <v>1</v>
+      </c>
+      <c r="P71" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Discussion_17</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>2</v>
+      </c>
+      <c r="C72" t="n">
+        <v>0.5752675347030163</v>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>last, glad, week, friend, happy, thank, working, nice, kagglers, everyone</t>
+        </is>
+      </c>
+      <c r="E72" t="n">
+        <v>1</v>
+      </c>
+      <c r="F72" t="n">
+        <v>0.01269594021141529</v>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>symmetric</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I72" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>auto</t>
+        </is>
+      </c>
+      <c r="K72" t="n">
+        <v>100</v>
+      </c>
+      <c r="L72" t="n">
+        <v>4</v>
+      </c>
+      <c r="M72" t="n">
+        <v>1024</v>
+      </c>
+      <c r="N72" t="n">
+        <v>10</v>
+      </c>
+      <c r="O72" t="b">
+        <v>1</v>
+      </c>
+      <c r="P72" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Discussion_17</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>3</v>
+      </c>
+      <c r="C73" t="n">
+        <v>0.5803199671208858</v>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>top, entered, day, last, friend, working, nice, glad, community, today</t>
+        </is>
+      </c>
+      <c r="E73" t="n">
+        <v>1</v>
+      </c>
+      <c r="F73" t="n">
+        <v>0.9618834257125854</v>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>symmetric</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I73" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>auto</t>
+        </is>
+      </c>
+      <c r="K73" t="n">
+        <v>100</v>
+      </c>
+      <c r="L73" t="n">
+        <v>4</v>
+      </c>
+      <c r="M73" t="n">
+        <v>1024</v>
+      </c>
+      <c r="N73" t="n">
+        <v>10</v>
+      </c>
+      <c r="O73" t="b">
+        <v>1</v>
+      </c>
+      <c r="P73" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Discussion_18</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>0</v>
+      </c>
+      <c r="C74" t="n">
+        <v>0.1149559207260609</v>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>python, without, journey, technique, building, data, robust, incredible, randomforest, exploration</t>
+        </is>
+      </c>
+      <c r="E74" t="n">
+        <v>0.7232714764170507</v>
+      </c>
+      <c r="F74" t="n">
+        <v>0.646561861038208</v>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>asymmetric</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>500</v>
+      </c>
+      <c r="I74" t="n">
+        <v>1</v>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>auto</t>
+        </is>
+      </c>
+      <c r="K74" t="n">
+        <v>100</v>
+      </c>
+      <c r="L74" t="n">
+        <v>4</v>
+      </c>
+      <c r="M74" t="n">
+        <v>1024</v>
+      </c>
+      <c r="N74" t="n">
+        <v>15</v>
+      </c>
+      <c r="O74" t="b">
+        <v>0</v>
+      </c>
+      <c r="P74" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Discussion_18</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>1</v>
+      </c>
+      <c r="C75" t="n">
+        <v>0.1177586056292057</v>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>first, machine_learning, grasping, way, overfitting, random, concept, power, underfitting, mastering</t>
+        </is>
+      </c>
+      <c r="E75" t="n">
+        <v>0.7232714764170507</v>
+      </c>
+      <c r="F75" t="n">
+        <v>0.3506061136722565</v>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>asymmetric</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>500</v>
+      </c>
+      <c r="I75" t="n">
+        <v>1</v>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>auto</t>
+        </is>
+      </c>
+      <c r="K75" t="n">
+        <v>100</v>
+      </c>
+      <c r="L75" t="n">
+        <v>4</v>
+      </c>
+      <c r="M75" t="n">
+        <v>1024</v>
+      </c>
+      <c r="N75" t="n">
+        <v>15</v>
+      </c>
+      <c r="O75" t="b">
+        <v>0</v>
+      </c>
+      <c r="P75" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Discussion_18</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>2</v>
+      </c>
+      <c r="C76" t="n">
+        <v>0.1179717741906643</v>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>every, entire, learning, robust, first, fundamental, let, validation, neverstoplearning, learn</t>
+        </is>
+      </c>
+      <c r="E76" t="n">
+        <v>0.7232714764170507</v>
+      </c>
+      <c r="F76" t="inlineStr"/>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>asymmetric</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>500</v>
+      </c>
+      <c r="I76" t="n">
+        <v>1</v>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>auto</t>
+        </is>
+      </c>
+      <c r="K76" t="n">
+        <v>100</v>
+      </c>
+      <c r="L76" t="n">
+        <v>4</v>
+      </c>
+      <c r="M76" t="n">
+        <v>1024</v>
+      </c>
+      <c r="N76" t="n">
+        <v>15</v>
+      </c>
+      <c r="O76" t="b">
+        <v>0</v>
+      </c>
+      <c r="P76" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Discussion_18</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>3</v>
+      </c>
+      <c r="C77" t="n">
+        <v>0.1181100960820913</v>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>underfitting, kagglelearn, along, module, thrilling, incredible, put, what, newfound, essential</t>
+        </is>
+      </c>
+      <c r="E77" t="n">
+        <v>0.7232714764170507</v>
+      </c>
+      <c r="F77" t="inlineStr"/>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>asymmetric</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>500</v>
+      </c>
+      <c r="I77" t="n">
+        <v>1</v>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>auto</t>
+        </is>
+      </c>
+      <c r="K77" t="n">
+        <v>100</v>
+      </c>
+      <c r="L77" t="n">
+        <v>4</v>
+      </c>
+      <c r="M77" t="n">
+        <v>1024</v>
+      </c>
+      <c r="N77" t="n">
+        <v>15</v>
+      </c>
+      <c r="O77" t="b">
+        <v>0</v>
+      </c>
+      <c r="P77" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Discussion_19</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>0</v>
+      </c>
+      <c r="C78" t="n">
+        <v>0.5771574378013611</v>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>day, learning, excited, growth, adventure, kaggle, hit, thrilled, ahead, milestone</t>
+        </is>
+      </c>
+      <c r="E78" t="n">
+        <v>1</v>
+      </c>
+      <c r="F78" t="n">
+        <v>0.01334904506802559</v>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>symmetric</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I78" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>auto</t>
+        </is>
+      </c>
+      <c r="K78" t="n">
+        <v>100</v>
+      </c>
+      <c r="L78" t="n">
+        <v>4</v>
+      </c>
+      <c r="M78" t="n">
+        <v>1024</v>
+      </c>
+      <c r="N78" t="n">
+        <v>10</v>
+      </c>
+      <c r="O78" t="b">
+        <v>1</v>
+      </c>
+      <c r="P78" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Discussion_19</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>1</v>
+      </c>
+      <c r="C79" t="n">
+        <v>0.5789734721183777</v>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>kaggle, url, vibrant, community, grateful, thrilled, learning, excited, growth, adventure</t>
+        </is>
+      </c>
+      <c r="E79" t="n">
+        <v>1</v>
+      </c>
+      <c r="F79" t="n">
+        <v>0.9599674940109253</v>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>symmetric</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I79" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>auto</t>
+        </is>
+      </c>
+      <c r="K79" t="n">
+        <v>100</v>
+      </c>
+      <c r="L79" t="n">
+        <v>4</v>
+      </c>
+      <c r="M79" t="n">
+        <v>1024</v>
+      </c>
+      <c r="N79" t="n">
+        <v>10</v>
+      </c>
+      <c r="O79" t="b">
+        <v>1</v>
+      </c>
+      <c r="P79" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Discussion_19</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>2</v>
+      </c>
+      <c r="C80" t="n">
+        <v>0.5752745866775513</v>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>incredible, excited, url, day, grateful, milestone, vibrant, journey, hit, datascience</t>
+        </is>
+      </c>
+      <c r="E80" t="n">
+        <v>1</v>
+      </c>
+      <c r="F80" t="n">
+        <v>0.01334358472377062</v>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>symmetric</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I80" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>auto</t>
+        </is>
+      </c>
+      <c r="K80" t="n">
+        <v>100</v>
+      </c>
+      <c r="L80" t="n">
+        <v>4</v>
+      </c>
+      <c r="M80" t="n">
+        <v>1024</v>
+      </c>
+      <c r="N80" t="n">
+        <v>10</v>
+      </c>
+      <c r="O80" t="b">
+        <v>1</v>
+      </c>
+      <c r="P80" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Discussion_19</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>3</v>
+      </c>
+      <c r="C81" t="n">
+        <v>0.5768465436995029</v>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>thrilled, ahead, incredible, vibrant, day, excited, journey, adventure, streak, milestone</t>
+        </is>
+      </c>
+      <c r="E81" t="n">
+        <v>1</v>
+      </c>
+      <c r="F81" t="n">
+        <v>0.01333985477685928</v>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>symmetric</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I81" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>auto</t>
+        </is>
+      </c>
+      <c r="K81" t="n">
+        <v>100</v>
+      </c>
+      <c r="L81" t="n">
+        <v>4</v>
+      </c>
+      <c r="M81" t="n">
+        <v>1024</v>
+      </c>
+      <c r="N81" t="n">
+        <v>10</v>
+      </c>
+      <c r="O81" t="b">
+        <v>1</v>
+      </c>
+      <c r="P81" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Discussion Mode</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr"/>
+      <c r="C82" t="inlineStr"/>
+      <c r="D82" t="inlineStr"/>
+      <c r="E82" t="inlineStr"/>
+      <c r="F82" t="inlineStr"/>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>symmetric</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I82" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>auto</t>
+        </is>
+      </c>
+      <c r="K82" t="n">
+        <v>100</v>
+      </c>
+      <c r="L82" t="n">
+        <v>4</v>
+      </c>
+      <c r="M82" t="n">
+        <v>1024</v>
+      </c>
+      <c r="N82" t="n">
+        <v>10</v>
+      </c>
+      <c r="O82" t="b">
+        <v>1</v>
+      </c>
+      <c r="P82" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
